--- a/resources/views/document_1_t_form.xlsx
+++ b/resources/views/document_1_t_form.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="95">
   <si>
     <t xml:space="preserve">Типовая межотраслевая форма № 1-Т 
 Утверждена постановлением Госкомстата России от 28.11.97 №78</t>
@@ -271,7 +271,7 @@
     <t xml:space="preserve">Глава</t>
   </si>
   <si>
-    <t xml:space="preserve">Украинский В.Н.</t>
+    <t xml:space="preserve">{{ document_vacation_allowed }}</t>
   </si>
   <si>
     <t xml:space="preserve">Груз к 
@@ -290,12 +290,18 @@
     <t xml:space="preserve">Главный (старший) бухгалтер</t>
   </si>
   <si>
+    <t xml:space="preserve">{{ document_accountat }}</t>
+  </si>
+  <si>
     <t xml:space="preserve">Груз получил 
 грузополучатель</t>
   </si>
   <si>
     <t xml:space="preserve">Отпуск груза 
 произвел</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{ document_cargo_dispatch }}</t>
   </si>
   <si>
     <t xml:space="preserve">М.П.</t>
@@ -320,7 +326,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -399,6 +405,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -639,7 +651,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1001,6 +1013,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1031,8 +1047,8 @@
   </sheetPr>
   <dimension ref="A1:BP62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AJ46" activeCellId="0" sqref="AJ46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AP4" activeCellId="0" sqref="AP4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5078125" defaultRowHeight="11.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2999,16 +3015,16 @@
       <c r="L35" s="66"/>
       <c r="M35" s="66"/>
       <c r="N35" s="66"/>
-      <c r="Z35" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA35" s="89"/>
-      <c r="AB35" s="89"/>
-      <c r="AC35" s="89"/>
-      <c r="AD35" s="89"/>
-      <c r="AE35" s="89"/>
-      <c r="AF35" s="89"/>
-      <c r="AG35" s="89"/>
+      <c r="Z35" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA35" s="91"/>
+      <c r="AB35" s="91"/>
+      <c r="AC35" s="91"/>
+      <c r="AD35" s="91"/>
+      <c r="AE35" s="91"/>
+      <c r="AF35" s="91"/>
+      <c r="AG35" s="91"/>
     </row>
     <row r="36" s="1" customFormat="true" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="P36" s="71" t="s">
@@ -3029,18 +3045,18 @@
       <c r="AB36" s="71"/>
       <c r="AC36" s="71"/>
       <c r="AD36" s="71"/>
-      <c r="AH36" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI36" s="91"/>
-      <c r="AJ36" s="91"/>
-      <c r="AK36" s="91"/>
-      <c r="AL36" s="91"/>
-      <c r="AM36" s="91"/>
+      <c r="AH36" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI36" s="92"/>
+      <c r="AJ36" s="92"/>
+      <c r="AK36" s="92"/>
+      <c r="AL36" s="92"/>
+      <c r="AM36" s="92"/>
     </row>
     <row r="37" s="1" customFormat="true" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="90" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C37" s="90"/>
       <c r="D37" s="90"/>
@@ -3056,22 +3072,22 @@
       <c r="M37" s="89"/>
       <c r="N37" s="89"/>
       <c r="O37" s="89"/>
-      <c r="Z37" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA37" s="89"/>
-      <c r="AB37" s="89"/>
-      <c r="AC37" s="89"/>
-      <c r="AD37" s="89"/>
-      <c r="AE37" s="89"/>
-      <c r="AF37" s="89"/>
-      <c r="AG37" s="89"/>
-      <c r="AH37" s="91"/>
-      <c r="AI37" s="91"/>
-      <c r="AJ37" s="91"/>
-      <c r="AK37" s="91"/>
-      <c r="AL37" s="91"/>
-      <c r="AM37" s="91"/>
+      <c r="Z37" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA37" s="91"/>
+      <c r="AB37" s="91"/>
+      <c r="AC37" s="91"/>
+      <c r="AD37" s="91"/>
+      <c r="AE37" s="91"/>
+      <c r="AF37" s="91"/>
+      <c r="AG37" s="91"/>
+      <c r="AH37" s="92"/>
+      <c r="AI37" s="92"/>
+      <c r="AJ37" s="92"/>
+      <c r="AK37" s="92"/>
+      <c r="AL37" s="92"/>
+      <c r="AM37" s="92"/>
       <c r="AN37" s="71" t="s">
         <v>83</v>
       </c>
@@ -3138,15 +3154,15 @@
     </row>
     <row r="39" s="1" customFormat="true" ht="11" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C39" s="52"/>
       <c r="G39" s="66" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H39" s="66"/>
       <c r="I39" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -3155,7 +3171,7 @@
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
       <c r="P39" s="66" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q39" s="66"/>
       <c r="R39" s="66"/>
@@ -3168,7 +3184,7 @@
     <row r="41" s="70" customFormat="true" ht="11" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="42" s="70" customFormat="true" ht="11" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="43" s="70" customFormat="true" ht="11" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="44" s="92" customFormat="true" ht="7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" s="93" customFormat="true" ht="7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="70"/>
       <c r="B44" s="70"/>
       <c r="C44" s="70"/>
